--- a/XC-comparisons/18P-DAT_comparison.xlsx
+++ b/XC-comparisons/18P-DAT_comparison.xlsx
@@ -2848,7 +2848,7 @@
         <v>-17</v>
       </c>
       <c r="B85">
-        <v>0.0100000000000016</v>
+        <v>0.0109999999999992</v>
       </c>
       <c r="C85">
         <v>0.00900000000000745</v>
@@ -3486,7 +3486,7 @@
         <v>5</v>
       </c>
       <c r="B107">
-        <v>0.00800000000000267</v>
+        <v>0.00900000000000389</v>
       </c>
       <c r="C107">
         <v>0.00600000000000023</v>
@@ -4008,7 +4008,7 @@
         <v>23</v>
       </c>
       <c r="B125">
-        <v>0.00600000000000023</v>
+        <v>0.0069999999999979</v>
       </c>
       <c r="C125">
         <v>0.00400000000000489</v>
@@ -4240,7 +4240,7 @@
         <v>31</v>
       </c>
       <c r="B133">
-        <v>0.00499999999999901</v>
+        <v>0.00600000000000023</v>
       </c>
       <c r="C133">
         <v>0.00399999999999778</v>
@@ -4269,7 +4269,7 @@
         <v>32</v>
       </c>
       <c r="B134">
-        <v>0.00400000000000134</v>
+        <v>0.00500000000000256</v>
       </c>
       <c r="C134">
         <v>0.00300000000000367</v>
@@ -6241,7 +6241,7 @@
         <v>100</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>0.00100000000000033</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -14590,7 +14590,7 @@
         <v>-17</v>
       </c>
       <c r="B85">
-        <v>31.254</v>
+        <v>31.255</v>
       </c>
       <c r="C85">
         <v>33.996</v>
@@ -15228,7 +15228,7 @@
         <v>5</v>
       </c>
       <c r="B107">
-        <v>30.055</v>
+        <v>30.056</v>
       </c>
       <c r="C107">
         <v>34.18</v>
@@ -15750,7 +15750,7 @@
         <v>23</v>
       </c>
       <c r="B125">
-        <v>32.488</v>
+        <v>32.489</v>
       </c>
       <c r="C125">
         <v>34.491</v>
@@ -15982,7 +15982,7 @@
         <v>31</v>
       </c>
       <c r="B133">
-        <v>29.564</v>
+        <v>29.565</v>
       </c>
       <c r="C133">
         <v>30.909</v>
@@ -16011,7 +16011,7 @@
         <v>32</v>
       </c>
       <c r="B134">
-        <v>29.02</v>
+        <v>29.021</v>
       </c>
       <c r="C134">
         <v>30.309</v>
@@ -17983,7 +17983,7 @@
         <v>100</v>
       </c>
       <c r="B202">
-        <v>4.004</v>
+        <v>4.005</v>
       </c>
       <c r="C202">
         <v>4.407</v>
@@ -20461,7 +20461,7 @@
         <v>-17</v>
       </c>
       <c r="B85">
-        <v>0.0319959045242259</v>
+        <v>0.0351943689009734</v>
       </c>
       <c r="C85">
         <v>0.0264737027885853</v>
@@ -21099,7 +21099,7 @@
         <v>5</v>
       </c>
       <c r="B107">
-        <v>0.026617867243396</v>
+        <v>0.029944104338581</v>
       </c>
       <c r="C107">
         <v>0.0175541252194272</v>
@@ -21621,7 +21621,7 @@
         <v>23</v>
       </c>
       <c r="B125">
-        <v>0.0184683575474028</v>
+        <v>0.0215457539474834</v>
       </c>
       <c r="C125">
         <v>0.0115972282624594</v>
@@ -21853,7 +21853,7 @@
         <v>31</v>
       </c>
       <c r="B133">
-        <v>0.0169124611013361</v>
+        <v>0.0202942668696101</v>
       </c>
       <c r="C133">
         <v>0.0129412145329767</v>
@@ -21882,7 +21882,7 @@
         <v>32</v>
       </c>
       <c r="B134">
-        <v>0.013783597518957</v>
+        <v>0.0172289032080306</v>
       </c>
       <c r="C134">
         <v>0.00989805008414552</v>
@@ -23854,7 +23854,7 @@
         <v>100</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>0.0249687890137412</v>
       </c>
       <c r="C202">
         <v>0</v>
